--- a/AssignmentCreditsDSMWS1718.xlsx
+++ b/AssignmentCreditsDSMWS1718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Python Assigments</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Control Structures</t>
+  </si>
+  <si>
+    <t>Functions</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,6 +455,14 @@
       </c>
       <c r="B8">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentCreditsDSMWS1718.xlsx
+++ b/AssignmentCreditsDSMWS1718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Python Assigments</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Functions</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming</t>
+  </si>
+  <si>
+    <t>DataBase</t>
+  </si>
+  <si>
+    <t>Sum Python</t>
+  </si>
+  <si>
+    <t>Minimum Python</t>
+  </si>
+  <si>
+    <t>R Assignments</t>
   </si>
 </sst>
 </file>
@@ -390,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -463,6 +478,53 @@
       </c>
       <c r="B9">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B3:B11)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>ROUND(B12*0.75,0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentCreditsDSMWS1718.xlsx
+++ b/AssignmentCreditsDSMWS1718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Python Assigments</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>R Assignments</t>
+  </si>
+  <si>
+    <t>Data Types</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,6 +528,14 @@
       </c>
       <c r="B17">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentCreditsDSMWS1718.xlsx
+++ b/AssignmentCreditsDSMWS1718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Python Assigments</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Data Types</t>
+  </si>
+  <si>
+    <t>Visualisation</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,6 +539,14 @@
       </c>
       <c r="B18">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/AssignmentCreditsDSMWS1718.xlsx
+++ b/AssignmentCreditsDSMWS1718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Python Assigments</t>
   </si>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,6 +546,22 @@
         <v>15</v>
       </c>
       <c r="B19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
         <v>15</v>
       </c>
     </row>

--- a/AssignmentCreditsDSMWS1718.xlsx
+++ b/AssignmentCreditsDSMWS1718.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Python Assigments</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Visualisation</t>
+  </si>
+  <si>
+    <t>Dataframe Access</t>
+  </si>
+  <si>
+    <t>Database Access</t>
+  </si>
+  <si>
+    <t>Sum R</t>
+  </si>
+  <si>
+    <t>Minimum R</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +527,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <f>ROUND(B12*0.75,0)</f>
         <v>83</v>
       </c>
@@ -563,6 +575,40 @@
       </c>
       <c r="B21">
         <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B17:B23)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <f>ROUND(B24*0.75,0)</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
